--- a/Nivelación Compuesta - USP (Desarrollado).xlsx
+++ b/Nivelación Compuesta - USP (Desarrollado).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torres Poveda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torres Poveda\Documents\INGENIERIA DE SOFTWARE\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F211CA53-A424-4F0A-A16C-D2799214ADB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D2E793-8EA1-4314-8CCF-5DEBADE63707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>Estación</t>
   </si>
@@ -74,25 +74,13 @@
     <t>……</t>
   </si>
   <si>
-    <t>Altura de instrumento = Cota conocida + Vista (+)</t>
-  </si>
-  <si>
-    <t>Altura de instrumento =</t>
-  </si>
-  <si>
     <t>PC - 1</t>
   </si>
   <si>
-    <t>Cota de 1 = Altura de instrumento - Vista (-)</t>
-  </si>
-  <si>
     <t>E - 2</t>
   </si>
   <si>
     <t>…..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cota de 1 = </t>
   </si>
   <si>
     <t>PC - 2</t>
@@ -175,22 +163,19 @@
     <t>K = distancia en Km</t>
   </si>
   <si>
-    <t>Ea = +/- 0.0355</t>
-  </si>
-  <si>
     <t xml:space="preserve">Para aceptar el trabajo el Error de cierre &lt; Error admisible </t>
   </si>
   <si>
     <t>(-0.029) &lt; (-0.035)</t>
   </si>
   <si>
-    <t>Se acepta el trabajo</t>
-  </si>
-  <si>
     <t>Corrección de cotas</t>
   </si>
   <si>
     <t>Fc = - (Ec) x da/dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ea = </t>
   </si>
 </sst>
 </file>
@@ -394,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,9 +423,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -474,6 +456,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,9 +471,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC998"/>
+  <dimension ref="A1:AJ998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="AF19" sqref="AF19:AF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -820,9 +805,10 @@
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
     <col min="11" max="26" width="10.7109375" customWidth="1"/>
+    <col min="32" max="32" width="54.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="35.25" customHeight="1">
+    <row r="1" spans="1:36" ht="35.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -854,7 +840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:36">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -883,19 +869,15 @@
         <f>H2</f>
         <v>173</v>
       </c>
-      <c r="L2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="25">
+      <c r="AB2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="24">
         <f>E48+E20</f>
         <v>6.4269999999999996</v>
       </c>
-      <c r="AB2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC2" s="16"/>
-    </row>
-    <row r="3" spans="1:29">
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="11"/>
       <c r="B3" s="11">
         <v>1</v>
@@ -917,17 +899,15 @@
         <v>173.30099999999999</v>
       </c>
       <c r="I3" s="14">
-        <f>-($T$8*D3)/$C$20</f>
+        <f>-($AJ$8*D3)/$C$20</f>
         <v>2.294303797468348E-3</v>
       </c>
       <c r="J3" s="13">
         <f t="shared" ref="J3:J7" si="1">H3+I3</f>
         <v>173.30329430379746</v>
       </c>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-    </row>
-    <row r="4" spans="1:29">
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="11"/>
       <c r="B4" s="11">
         <v>2</v>
@@ -949,26 +929,22 @@
         <v>173.60300000000001</v>
       </c>
       <c r="I4" s="14">
-        <f>-($T$8*D4)/$C$20</f>
+        <f>-($AJ$8*D4)/$C$20</f>
         <v>4.588607594936696E-3</v>
       </c>
       <c r="J4" s="13">
         <f t="shared" si="1"/>
         <v>173.60758860759495</v>
       </c>
-      <c r="L4" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="25">
+      <c r="AB4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="24">
         <f>G48+G20</f>
         <v>6.4559999999999995</v>
       </c>
-      <c r="AB4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC4" s="16"/>
-    </row>
-    <row r="5" spans="1:29">
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="11"/>
       <c r="B5" s="11">
         <v>3</v>
@@ -990,17 +966,15 @@
         <v>173.887</v>
       </c>
       <c r="I5" s="14">
-        <f>-($T$8*D5)/$C$20</f>
+        <f>-($AJ$8*D5)/$C$20</f>
         <v>6.8829113924050436E-3</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
         <v>173.89388291139241</v>
       </c>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-    </row>
-    <row r="6" spans="1:29">
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="11"/>
       <c r="B6" s="11">
         <v>4</v>
@@ -1022,28 +996,24 @@
         <v>174.21899999999999</v>
       </c>
       <c r="I6" s="14">
-        <f>-($T$8*D6)/$C$20</f>
+        <f>-($AJ$8*D6)/$C$20</f>
         <v>9.177215189873392E-3</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="1"/>
         <v>174.22817721518987</v>
       </c>
-      <c r="L6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC6" s="16"/>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AB6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH6" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="11">
         <v>0.3</v>
@@ -1054,38 +1024,36 @@
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>0.26</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="29">
         <f t="shared" si="0"/>
         <v>174.25700000000001</v>
       </c>
       <c r="I7" s="14">
-        <f>-($T$8*D7)/$C$20</f>
+        <f>-($AJ$8*D7)/$C$20</f>
         <v>9.3148734177214941E-3</v>
       </c>
       <c r="J7" s="13">
         <f t="shared" si="1"/>
         <v>174.26631487341771</v>
       </c>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="18" t="s">
-        <v>17</v>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="D8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="16">
         <v>1.008</v>
       </c>
       <c r="F8" s="13">
@@ -1096,26 +1064,23 @@
       <c r="H8" s="13"/>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
-      <c r="L8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="26">
+      <c r="AB8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD8" s="25">
         <f>H47-H2</f>
         <v>-2.9000000000024784E-2</v>
       </c>
-      <c r="R8" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="26">
-        <f>N2-N4</f>
+      <c r="AE8" s="35"/>
+      <c r="AH8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ8" s="25">
+        <f>AD2-AD4</f>
         <v>-2.8999999999999915E-2</v>
       </c>
-      <c r="AB8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC8" s="16"/>
-    </row>
-    <row r="9" spans="1:29">
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>5</v>
@@ -1137,15 +1102,18 @@
         <v>174.50200000000001</v>
       </c>
       <c r="I9" s="14">
-        <f>-($T$8*D9)/$C$20</f>
+        <f>-($AJ$8*D9)/$C$20</f>
         <v>1.1609177215189842E-2</v>
       </c>
       <c r="J9" s="13">
         <f t="shared" ref="J9:J12" si="4">H9+I9</f>
         <v>174.51360917721519</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AJ9" s="36">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>6</v>
@@ -1167,16 +1135,16 @@
         <v>174.56100000000001</v>
       </c>
       <c r="I10" s="14">
-        <f>-($T$8*D10)/$C$20</f>
+        <f>-($AJ$8*D10)/$C$20</f>
         <v>1.3903481012658189E-2</v>
       </c>
       <c r="J10" s="13">
         <f t="shared" si="4"/>
         <v>174.57490348101265</v>
       </c>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AB10" s="26"/>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>7</v>
@@ -1198,21 +1166,21 @@
         <v>174.661</v>
       </c>
       <c r="I11" s="14">
-        <f>-($T$8*D11)/$C$20</f>
+        <f>-($AJ$8*D11)/$C$20</f>
         <v>1.6197784810126535E-2</v>
       </c>
       <c r="J11" s="13">
         <f t="shared" si="4"/>
         <v>174.67719778481012</v>
       </c>
-      <c r="L11" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AB11" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" s="11">
         <v>2.5</v>
@@ -1223,7 +1191,7 @@
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>0.56799999999999995</v>
       </c>
       <c r="H12" s="13">
@@ -1231,7 +1199,7 @@
         <v>174.697</v>
       </c>
       <c r="I12" s="14">
-        <f>-($T$8*D12)/$C$20</f>
+        <f>-($AJ$8*D12)/$C$20</f>
         <v>1.7344936708860708E-2</v>
       </c>
       <c r="J12" s="13">
@@ -1239,20 +1207,20 @@
         <v>174.71434493670887</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="18" t="s">
-        <v>21</v>
+    <row r="13" spans="1:36">
+      <c r="A13" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="17">
+        <v>16</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="16">
         <v>1.472</v>
       </c>
       <c r="F13" s="13">
@@ -1263,18 +1231,18 @@
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
-      <c r="L13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="28">
+      <c r="AB13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC13" s="27">
         <f>C20</f>
         <v>63.199999999999996</v>
       </c>
-      <c r="P13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AF13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
       <c r="A14" s="11"/>
       <c r="B14" s="11">
         <v>8</v>
@@ -1296,7 +1264,7 @@
         <v>174.94200000000001</v>
       </c>
       <c r="I14" s="14">
-        <f>-($T$8*D14)/$C$20</f>
+        <f>-($AJ$8*D14)/$C$20</f>
         <v>1.9639240506329057E-2</v>
       </c>
       <c r="J14" s="13">
@@ -1304,7 +1272,7 @@
         <v>174.96163924050634</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="15.75" customHeight="1">
+    <row r="15" spans="1:36" ht="15.75" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="11">
         <v>9</v>
@@ -1326,25 +1294,25 @@
         <v>174.93200000000002</v>
       </c>
       <c r="I15" s="14">
-        <f>-($T$8*D15)/$C$20</f>
+        <f>-($AJ$8*D15)/$C$20</f>
         <v>2.1933544303797403E-2</v>
       </c>
       <c r="J15" s="13">
         <f t="shared" si="7"/>
         <v>174.95393354430382</v>
       </c>
-      <c r="L15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="28">
+      <c r="AB15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC15" s="27">
         <f>C48</f>
         <v>63.199999999999996</v>
       </c>
-      <c r="P15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1">
+      <c r="AF15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="15.75" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="11">
         <v>10</v>
@@ -1366,7 +1334,7 @@
         <v>174.86100000000002</v>
       </c>
       <c r="I16" s="14">
-        <f>-($T$8*D16)/$C$20</f>
+        <f>-($AJ$8*D16)/$C$20</f>
         <v>2.4227848101265752E-2</v>
       </c>
       <c r="J16" s="13">
@@ -1374,7 +1342,7 @@
         <v>174.88522784810129</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+    <row r="17" spans="1:32" ht="15.75" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="11">
         <v>11</v>
@@ -1396,22 +1364,25 @@
         <v>174.83200000000002</v>
       </c>
       <c r="I17" s="14">
-        <f>-($T$8*D17)/$C$20</f>
+        <f>-($AJ$8*D17)/$C$20</f>
         <v>2.6522151898734102E-2</v>
       </c>
       <c r="J17" s="13">
         <f t="shared" si="7"/>
         <v>174.85852215189877</v>
       </c>
-      <c r="L17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="1">
-        <f>SUM(M13:M16)</f>
+      <c r="AB17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC17" s="1">
+        <f>SUM(AC13:AC16)</f>
         <v>126.39999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1">
+      <c r="AF17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="15.75" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11">
         <v>12</v>
@@ -1433,7 +1404,7 @@
         <v>174.78800000000001</v>
       </c>
       <c r="I18" s="14">
-        <f>-($T$8*D18)/$C$20</f>
+        <f>-($AJ$8*D18)/$C$20</f>
         <v>2.8816455696202448E-2</v>
       </c>
       <c r="J18" s="13">
@@ -1441,21 +1412,21 @@
         <v>174.81681645569623</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1">
+    <row r="19" spans="1:32" ht="15.75" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11">
         <v>0.4</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <f t="shared" si="8"/>
         <v>63.199999999999996</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <v>1.391</v>
       </c>
       <c r="H19" s="13">
@@ -1463,161 +1434,179 @@
         <v>174.77800000000002</v>
       </c>
       <c r="I19" s="14">
-        <f>-($T$8*D19)/$C$20</f>
+        <f>-($AJ$8*D19)/$C$20</f>
         <v>2.8999999999999915E-2</v>
       </c>
       <c r="J19" s="13">
         <f t="shared" si="7"/>
         <v>174.80700000000002</v>
       </c>
-      <c r="L19" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A20" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="32"/>
+      <c r="AB19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF19" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A20" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="33"/>
       <c r="C20" s="1">
         <f>SUM(C2:C19)</f>
         <v>63.199999999999996</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19">
         <f>SUM(E2:E19)</f>
         <v>3.9969999999999999</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20">
+      <c r="F20" s="20"/>
+      <c r="G20" s="19">
         <f>SUM(G7,G12,G19)</f>
         <v>2.2189999999999999</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="L21" t="s">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="AF20">
+        <f>IF(AJ8&lt;0,-0.1*SQRT(AC17/1000),0.1*SQRT(AC17/1000))</f>
+        <v>-3.5552777669262355E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="AB21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="AB23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="AB25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+    </row>
+    <row r="26" spans="1:32" ht="9" customHeight="1">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+    </row>
+    <row r="27" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A27" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="AB27" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="P21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="L23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="L25" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="9" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A27" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="L27" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" s="30"/>
-      <c r="N27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+    </row>
+    <row r="28" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="AB28" s="28" t="str">
+        <f>IF(AJ8&lt;=AF20,"Se acepta el Trabajo","No Se acepta el Trabajo")</f>
+        <v>No Se acepta el Trabajo</v>
+      </c>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+    </row>
+    <row r="29" spans="1:32" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1648,20 +1637,24 @@
       <c r="J29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="16"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+    </row>
+    <row r="30" spans="1:32" ht="15.75" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E30" s="7">
         <v>1.3779999999999999</v>
@@ -1671,7 +1664,7 @@
         <v>176.15599999999998</v>
       </c>
       <c r="G30" s="9"/>
-      <c r="H30" s="23">
+      <c r="H30" s="22">
         <v>174.77799999999999</v>
       </c>
       <c r="I30" s="9"/>
@@ -1679,8 +1672,13 @@
         <f>H30</f>
         <v>174.77799999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+    </row>
+    <row r="31" spans="1:32" ht="15.75" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="11">
         <v>12</v>
@@ -1697,23 +1695,27 @@
       <c r="G31" s="12">
         <v>1.331</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="23">
         <f t="shared" ref="H31:H36" si="9">$F$30-G31</f>
         <v>174.82499999999999</v>
       </c>
       <c r="I31" s="12">
-        <f>-($T$8*D31)/$C$48</f>
+        <f>-($AJ$8*D31)/$C$48</f>
         <v>1.8354430379746784E-4</v>
       </c>
       <c r="J31" s="13">
         <f t="shared" ref="J31:J36" si="10">H31+I31</f>
         <v>174.8251835443038</v>
       </c>
-      <c r="L31" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+      <c r="AB31" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+    </row>
+    <row r="32" spans="1:32" ht="15.75" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="11">
         <v>11</v>
@@ -1730,20 +1732,25 @@
       <c r="G32" s="12">
         <v>1.3089999999999999</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="23">
         <f t="shared" si="9"/>
         <v>174.84699999999998</v>
       </c>
       <c r="I32" s="12">
-        <f>-($T$8*D32)/$C$48</f>
+        <f>-($AJ$8*D32)/$C$48</f>
         <v>2.4778481012658156E-3</v>
       </c>
       <c r="J32" s="13">
         <f t="shared" si="10"/>
         <v>174.84947784810126</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+    </row>
+    <row r="33" spans="1:28" ht="15.75" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11">
         <v>10</v>
@@ -1760,23 +1767,23 @@
       <c r="G33" s="12">
         <v>1.2789999999999999</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="23">
         <f t="shared" si="9"/>
         <v>174.87699999999998</v>
       </c>
       <c r="I33" s="12">
-        <f>-($T$8*D33)/$C$48</f>
+        <f>-($AJ$8*D33)/$C$48</f>
         <v>4.772151898734164E-3</v>
       </c>
       <c r="J33" s="13">
         <f t="shared" si="10"/>
         <v>174.8817721518987</v>
       </c>
-      <c r="L33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="AB33" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="15.75" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="11">
         <v>9</v>
@@ -1793,20 +1800,21 @@
       <c r="G34" s="12">
         <v>1.204</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="23">
         <f t="shared" si="9"/>
         <v>174.95199999999997</v>
       </c>
       <c r="I34" s="12">
-        <f>-($T$8*D34)/$C$48</f>
+        <f>-($AJ$8*D34)/$C$48</f>
         <v>7.0664556962025116E-3</v>
       </c>
       <c r="J34" s="13">
         <f t="shared" si="10"/>
         <v>174.95906645569616</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+      <c r="AB34" s="28"/>
+    </row>
+    <row r="35" spans="1:28" ht="15.75" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="11">
         <v>8</v>
@@ -1823,23 +1831,24 @@
       <c r="G35" s="12">
         <v>1.198</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="23">
         <f t="shared" si="9"/>
         <v>174.95799999999997</v>
       </c>
       <c r="I35" s="12">
-        <f>-($T$8*D35)/$C$48</f>
+        <f>-($AJ$8*D35)/$C$48</f>
         <v>9.3607594936708591E-3</v>
       </c>
       <c r="J35" s="13">
         <f t="shared" si="10"/>
         <v>174.96736075949363</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1">
+      <c r="AB35" s="28"/>
+    </row>
+    <row r="36" spans="1:28" ht="15.75" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C36" s="11">
         <v>5</v>
@@ -1850,36 +1859,37 @@
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="17">
+      <c r="G36" s="16">
         <v>1.472</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="23">
         <f t="shared" si="9"/>
         <v>174.68399999999997</v>
       </c>
       <c r="I36" s="12">
-        <f>-($T$8*D36)/$C$48</f>
+        <f>-($AJ$8*D36)/$C$48</f>
         <v>1.1655063291139207E-2</v>
       </c>
       <c r="J36" s="13">
         <f t="shared" si="10"/>
         <v>174.6956550632911</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A37" s="18" t="s">
-        <v>17</v>
+      <c r="AB36" s="28"/>
+    </row>
+    <row r="37" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A37" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="17">
+        <v>16</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="16">
         <v>0.64700000000000002</v>
       </c>
       <c r="F37" s="13">
@@ -1887,11 +1897,12 @@
         <v>175.33099999999996</v>
       </c>
       <c r="G37" s="12"/>
-      <c r="H37" s="24"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="12"/>
       <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1">
+      <c r="AB37" s="28"/>
+    </row>
+    <row r="38" spans="1:28" ht="15.75" customHeight="1">
       <c r="A38" s="11"/>
       <c r="B38" s="11">
         <v>7</v>
@@ -1908,20 +1919,21 @@
       <c r="G38" s="12">
         <v>0.68400000000000005</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="23">
         <f t="shared" ref="H38:H41" si="12">$F$37-G38</f>
         <v>174.64699999999996</v>
       </c>
       <c r="I38" s="12">
-        <f>-($T$8*D38)/$C$48</f>
+        <f>-($AJ$8*D38)/$C$48</f>
         <v>1.2802215189873381E-2</v>
       </c>
       <c r="J38" s="13">
         <f t="shared" ref="J38:J41" si="13">H38+I38</f>
         <v>174.65980221518984</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1">
+      <c r="AB38" s="28"/>
+    </row>
+    <row r="39" spans="1:28" ht="15.75" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" s="11">
         <v>6</v>
@@ -1938,20 +1950,21 @@
       <c r="G39" s="12">
         <v>0.76500000000000001</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="23">
         <f t="shared" si="12"/>
         <v>174.56599999999997</v>
       </c>
       <c r="I39" s="12">
-        <f>-($T$8*D39)/$C$48</f>
+        <f>-($AJ$8*D39)/$C$48</f>
         <v>1.5096518987341729E-2</v>
       </c>
       <c r="J39" s="13">
         <f t="shared" si="13"/>
         <v>174.58109651898732</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1">
+      <c r="AB39" s="28"/>
+    </row>
+    <row r="40" spans="1:28" ht="15.75" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="11">
         <v>5</v>
@@ -1968,23 +1981,24 @@
       <c r="G40" s="12">
         <v>0.84099999999999997</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="23">
         <f t="shared" si="12"/>
         <v>174.48999999999995</v>
       </c>
       <c r="I40" s="12">
-        <f>-($T$8*D40)/$C$48</f>
+        <f>-($AJ$8*D40)/$C$48</f>
         <v>1.7390822784810075E-2</v>
       </c>
       <c r="J40" s="13">
         <f t="shared" si="13"/>
         <v>174.50739082278477</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1">
+      <c r="AB40" s="28"/>
+    </row>
+    <row r="41" spans="1:28" ht="15.75" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C41" s="11">
         <v>5</v>
@@ -1995,36 +2009,37 @@
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="17">
+      <c r="G41" s="16">
         <v>1.071</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="23">
         <f t="shared" si="12"/>
         <v>174.25999999999996</v>
       </c>
       <c r="I41" s="12">
-        <f>-($T$8*D41)/$C$48</f>
+        <f>-($AJ$8*D41)/$C$48</f>
         <v>1.9685126582278421E-2</v>
       </c>
       <c r="J41" s="13">
         <f t="shared" si="13"/>
         <v>174.27968512658225</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A42" s="18" t="s">
+      <c r="AB41" s="28"/>
+    </row>
+    <row r="42" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A42" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="17">
+      <c r="D42" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="16">
         <v>0.40500000000000003</v>
       </c>
       <c r="F42" s="13">
@@ -2032,11 +2047,12 @@
         <v>174.66499999999996</v>
       </c>
       <c r="G42" s="12"/>
-      <c r="H42" s="24"/>
+      <c r="H42" s="23"/>
       <c r="I42" s="12"/>
       <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+      <c r="AB42" s="28"/>
+    </row>
+    <row r="43" spans="1:28" ht="15.75" customHeight="1">
       <c r="A43" s="11"/>
       <c r="B43" s="11">
         <v>4</v>
@@ -2053,20 +2069,21 @@
       <c r="G43" s="12">
         <v>0.45</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="23">
         <f t="shared" ref="H43:H47" si="15">$F$42-G43</f>
         <v>174.21499999999997</v>
       </c>
       <c r="I43" s="12">
-        <f>-($T$8*D43)/$C$48</f>
+        <f>-($AJ$8*D43)/$C$48</f>
         <v>1.9822784810126521E-2</v>
       </c>
       <c r="J43" s="13">
         <f t="shared" ref="J43:J47" si="16">H43+I43</f>
         <v>174.23482278481009</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+      <c r="AB43" s="28"/>
+    </row>
+    <row r="44" spans="1:28" ht="15.75" customHeight="1">
       <c r="A44" s="11"/>
       <c r="B44" s="11">
         <v>3</v>
@@ -2083,20 +2100,21 @@
       <c r="G44" s="12">
         <v>0.80400000000000005</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H44" s="23">
         <f t="shared" si="15"/>
         <v>173.86099999999996</v>
       </c>
       <c r="I44" s="12">
-        <f>-($T$8*D44)/$C$48</f>
+        <f>-($AJ$8*D44)/$C$48</f>
         <v>2.211708860759487E-2</v>
       </c>
       <c r="J44" s="13">
         <f t="shared" si="16"/>
         <v>173.88311708860755</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1">
+      <c r="AB44" s="28"/>
+    </row>
+    <row r="45" spans="1:28" ht="15.75" customHeight="1">
       <c r="A45" s="11"/>
       <c r="B45" s="11">
         <v>2</v>
@@ -2113,20 +2131,21 @@
       <c r="G45" s="12">
         <v>1.097</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="23">
         <f t="shared" si="15"/>
         <v>173.56799999999996</v>
       </c>
       <c r="I45" s="12">
-        <f>-($T$8*D45)/$C$48</f>
+        <f>-($AJ$8*D45)/$C$48</f>
         <v>2.441139240506322E-2</v>
       </c>
       <c r="J45" s="13">
         <f t="shared" si="16"/>
         <v>173.59241139240501</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1">
+      <c r="AB45" s="28"/>
+    </row>
+    <row r="46" spans="1:28" ht="15.75" customHeight="1">
       <c r="A46" s="11"/>
       <c r="B46" s="11">
         <v>1</v>
@@ -2143,20 +2162,21 @@
       <c r="G46" s="12">
         <v>1.3879999999999999</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H46" s="23">
         <f t="shared" si="15"/>
         <v>173.27699999999996</v>
       </c>
       <c r="I46" s="12">
-        <f>-($T$8*D46)/$C$48</f>
+        <f>-($AJ$8*D46)/$C$48</f>
         <v>2.6705696202531565E-2</v>
       </c>
       <c r="J46" s="13">
         <f t="shared" si="16"/>
         <v>173.30370569620248</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1">
+      <c r="AB46" s="28"/>
+    </row>
+    <row r="47" spans="1:28" ht="15.75" customHeight="1">
       <c r="A47" s="11"/>
       <c r="B47" s="11" t="s">
         <v>11</v>
@@ -2164,50 +2184,52 @@
       <c r="C47" s="11">
         <v>5</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="17">
         <f t="shared" si="17"/>
         <v>63.199999999999996</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="17">
+      <c r="G47" s="16">
         <v>1.694</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="23">
         <f t="shared" si="15"/>
         <v>172.97099999999998</v>
       </c>
       <c r="I47" s="12">
-        <f>-($T$8*D47)/$C$48</f>
+        <f>-($AJ$8*D47)/$C$48</f>
         <v>2.8999999999999915E-2</v>
       </c>
       <c r="J47" s="13">
         <f t="shared" si="16"/>
         <v>172.99999999999997</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A48" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="32"/>
+      <c r="AB47" s="28"/>
+    </row>
+    <row r="48" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A48" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="33"/>
       <c r="C48" s="1">
         <f>SUM(C30:C47)</f>
         <v>63.199999999999996</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20">
+      <c r="D48" s="18"/>
+      <c r="E48" s="19">
         <f>SUM(E30:E47)</f>
         <v>2.4299999999999997</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="20">
+      <c r="F48" s="20"/>
+      <c r="G48" s="19">
         <f>SUM(G36,G41,G47)</f>
         <v>4.2370000000000001</v>
       </c>
-      <c r="H48" s="21"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="AB48" s="28"/>
     </row>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
@@ -3161,7 +3183,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="AB27:AC27"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A27:J27"/>
